--- a/posesiones/1463365.xlsx
+++ b/posesiones/1463365.xlsx
@@ -1775,10 +1775,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>20</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>15</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2172,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>18</v>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
         <v>14</v>
@@ -2275,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>7</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>19</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2528,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18">
         <v>24</v>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R19">
         <v>27</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R21">
         <v>24</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>24</v>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R24">
         <v>18</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R26">
         <v>14</v>
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R30">
         <v>24</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>21</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3375,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R35">
         <v>10</v>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R36">
         <v>13</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3531,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R38">
         <v>20</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R40">
         <v>12</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3975,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>25</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4272,7 +4272,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R53">
         <v>22</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R61">
         <v>14</v>
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4898,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R69">
         <v>46</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R71">
         <v>17</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5248,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R73">
         <v>14</v>
@@ -5298,7 +5298,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R75">
         <v>15</v>
@@ -5398,7 +5398,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5589,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R80">
         <v>26</v>
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5692,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R82">
         <v>9</v>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5889,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6174,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R95">
         <v>32</v>
@@ -6371,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R96">
         <v>23</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R98">
         <v>21</v>
@@ -6524,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6668,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R102">
         <v>10</v>
@@ -6712,10 +6712,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6850,10 +6850,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R111">
         <v>32</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R113">
         <v>14</v>
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7488,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R119">
         <v>22</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7588,7 +7588,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R121">
         <v>19</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7691,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R123">
         <v>10</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7844,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R126">
         <v>6</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8176,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8364,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8461,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R139">
         <v>14</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R145">
         <v>39</v>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8852,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R147">
         <v>18</v>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9043,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R151">
         <v>12</v>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R153">
         <v>7</v>
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9296,7 +9296,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R156">
         <v>34</v>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R158">
         <v>7</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R168">
         <v>32</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -9978,7 +9978,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R170">
         <v>20</v>
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10119,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10216,7 +10216,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R175">
         <v>26</v>
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10316,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R177">
         <v>20</v>
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R178">
         <v>27</v>
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10654,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10704,7 +10704,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R185">
         <v>16</v>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10807,7 +10807,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R187">
         <v>18</v>
@@ -10860,7 +10860,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10910,7 +10910,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R189">
         <v>7</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11010,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R191">
         <v>13</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R193">
         <v>22</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11210,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R195">
         <v>8</v>
@@ -11260,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11304,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11351,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11398,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11445,7 +11445,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11542,7 +11542,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R202">
         <v>15</v>
@@ -11592,7 +11592,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11639,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11686,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11736,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R206">
         <v>16</v>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12021,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12118,7 +12118,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R214">
         <v>15</v>
@@ -12171,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R215">
         <v>23</v>
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12274,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R217">
         <v>17</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12377,7 +12377,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R219">
         <v>20</v>
@@ -12427,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12521,7 +12521,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R222">
         <v>24</v>
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12618,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12762,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R227">
         <v>25</v>
@@ -12806,10 +12806,10 @@
         <v>1</v>
       </c>
       <c r="P228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q228">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12856,7 +12856,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -12944,10 +12944,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q231">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -12997,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R232">
         <v>17</v>
@@ -13050,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R233">
         <v>18</v>
@@ -13100,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13147,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13197,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13247,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R237">
         <v>31</v>
@@ -13300,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13347,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13394,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13444,7 +13444,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R241">
         <v>6</v>
@@ -13497,7 +13497,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="R242">
         <v>19</v>
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13597,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="R244">
         <v>25</v>
@@ -13650,7 +13650,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R245">
         <v>25</v>
@@ -13703,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="R246">
         <v>15</v>
@@ -13756,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R248">
         <v>15</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13906,7 +13906,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14000,7 +14000,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14050,7 +14050,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R253">
         <v>6</v>
@@ -14100,7 +14100,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14147,7 +14147,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R256">
         <v>22</v>
@@ -14247,7 +14247,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14297,7 +14297,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R258">
         <v>16</v>
@@ -14347,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14397,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R260">
         <v>4</v>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14494,7 +14494,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14541,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14588,7 +14588,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14638,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R265">
         <v>20</v>
@@ -14688,7 +14688,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14735,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14782,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14832,7 +14832,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R269">
         <v>23</v>
@@ -14882,7 +14882,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14932,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R271">
         <v>25</v>
@@ -14985,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15035,7 +15035,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R273">
         <v>23</v>
@@ -15088,7 +15088,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15135,7 +15135,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15182,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15229,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15276,7 +15276,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15326,7 +15326,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R279">
         <v>23</v>
@@ -15376,7 +15376,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15473,7 +15473,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R282">
         <v>23</v>
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15573,7 +15573,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R284">
         <v>15</v>
@@ -15626,7 +15626,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15676,7 +15676,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R286">
         <v>9</v>
@@ -15729,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15779,7 +15779,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R288">
         <v>18</v>
@@ -15829,7 +15829,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15876,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15926,7 +15926,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R291">
         <v>9</v>
@@ -15979,7 +15979,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16029,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R293">
         <v>8</v>
@@ -16079,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16223,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16367,7 +16367,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R300">
         <v>14</v>
@@ -16417,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16555,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16602,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16649,7 +16649,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16696,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16746,7 +16746,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R308">
         <v>15</v>
@@ -16799,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16849,7 +16849,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R310">
         <v>16</v>
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -16996,7 +16996,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17043,7 +17043,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17090,7 +17090,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R316">
         <v>17</v>
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17243,7 +17243,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R318">
         <v>17</v>
@@ -17293,7 +17293,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R320">
         <v>22</v>
@@ -17396,7 +17396,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17446,7 +17446,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R322">
         <v>10</v>
@@ -17496,7 +17496,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17546,7 +17546,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R324">
         <v>6</v>
@@ -17596,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17643,7 +17643,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17696,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R327">
         <v>22</v>
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17840,7 +17840,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17934,7 +17934,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -17984,7 +17984,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R333">
         <v>19</v>
@@ -18037,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18084,7 +18084,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18225,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18322,7 +18322,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R340">
         <v>19</v>
@@ -18372,7 +18372,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18419,7 +18419,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18469,7 +18469,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R343">
         <v>0</v>
@@ -18525,7 +18525,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R344">
         <v>4</v>
@@ -18569,10 +18569,10 @@
         <v>1</v>
       </c>
       <c r="P345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q345">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18619,7 +18619,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18666,7 +18666,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18713,7 +18713,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18807,7 +18807,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18854,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18895,10 +18895,10 @@
         <v>1</v>
       </c>
       <c r="P352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q352">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19039,7 +19039,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19089,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="R356">
         <v>15</v>
@@ -19142,7 +19142,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R357">
         <v>19</v>
@@ -19192,7 +19192,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19242,7 +19242,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="R359">
         <v>15</v>
@@ -19292,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19342,7 +19342,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="R361">
         <v>9</v>
@@ -19392,7 +19392,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19442,7 +19442,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R363">
         <v>21</v>
@@ -19495,7 +19495,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="R364">
         <v>19</v>
@@ -19545,7 +19545,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19589,7 +19589,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19639,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="R367">
         <v>24</v>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19739,7 +19739,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19789,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19836,7 +19836,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19883,7 +19883,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19930,7 +19930,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R373">
         <v>28</v>
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20074,7 +20074,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20121,7 +20121,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20171,7 +20171,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="R378">
         <v>20</v>
@@ -20224,7 +20224,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="R379">
         <v>21</v>
@@ -20277,7 +20277,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="R380">
         <v>10</v>
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20468,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20518,7 +20518,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="R385">
         <v>12</v>
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20618,7 +20618,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20665,7 +20665,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20712,7 +20712,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20762,7 +20762,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="R390">
         <v>35</v>
@@ -20815,7 +20815,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20865,7 +20865,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R392">
         <v>14</v>
@@ -20915,7 +20915,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20965,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21015,7 +21015,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R395">
         <v>7</v>
@@ -21068,7 +21068,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21118,7 +21118,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R397">
         <v>20</v>
@@ -21168,7 +21168,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21215,7 +21215,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21262,7 +21262,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21309,7 +21309,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21359,7 +21359,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R402">
         <v>4</v>
@@ -21409,7 +21409,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21456,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21503,7 +21503,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21550,7 +21550,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21600,7 +21600,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R407">
         <v>21</v>
@@ -21653,7 +21653,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21703,7 +21703,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R409">
         <v>19</v>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21800,7 +21800,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R411">
         <v>26</v>
@@ -21853,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21903,7 +21903,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R413">
         <v>21</v>
@@ -21956,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22006,7 +22006,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R415">
         <v>21</v>
@@ -22059,7 +22059,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22109,7 +22109,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R417">
         <v>19</v>
@@ -22162,7 +22162,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R418">
         <v>18</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22265,7 +22265,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R420">
         <v>14</v>
@@ -22315,7 +22315,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22365,7 +22365,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R422">
         <v>16</v>
@@ -22415,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22462,7 +22462,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22515,7 +22515,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R425">
         <v>11</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22659,7 +22659,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22709,7 +22709,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R429">
         <v>19</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22809,7 +22809,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22856,7 +22856,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22950,7 +22950,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -22997,7 +22997,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23044,7 +23044,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23091,7 +23091,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23141,7 +23141,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R438">
         <v>46</v>
@@ -23191,7 +23191,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23332,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23379,7 +23379,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23426,7 +23426,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23476,7 +23476,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R445">
         <v>33</v>
@@ -23523,7 +23523,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23573,7 +23573,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R447">
         <v>1</v>
@@ -23623,7 +23623,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23717,7 +23717,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23767,7 +23767,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R451">
         <v>0</v>
@@ -23814,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24002,7 +24002,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24049,7 +24049,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24146,7 +24146,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R459">
         <v>6</v>
@@ -24196,7 +24196,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24243,7 +24243,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24293,7 +24293,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R462">
         <v>0</v>
@@ -24346,7 +24346,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24396,7 +24396,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R464">
         <v>1</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24540,7 +24540,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24637,7 +24637,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R469">
         <v>2</v>
@@ -24690,7 +24690,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R470">
         <v>1</v>
@@ -24743,7 +24743,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R471">
         <v>0</v>
@@ -24787,10 +24787,10 @@
         <v>1</v>
       </c>
       <c r="P472" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q472">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24831,7 +24831,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
